--- a/experiment/1_metaphor_individual_difference/Analysis/job/job_autocorret_with_check.xlsx
+++ b/experiment/1_metaphor_individual_difference/Analysis/job/job_autocorret_with_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryunosuke/Dropbox/比喩関連/基盤数/metaphor_individual_difference/code/experiment/1_metaphor_individual_difference/Analysis/job/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryunosuke/Dropbox/比喩関連/基盤数/metaphor_individual_difference/github/predication_and_cognitive_abilities/experiment/1_metaphor_individual_difference/Analysis/job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AFD762-67C2-124B-B0AF-28AFA77CC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D5D3DE-F2EE-1E49-9D77-0AF8BA5A0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{7A4D9328-7EAC-C24D-B44D-B6A619471FFD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17160" xr2:uid="{7A4D9328-7EAC-C24D-B44D-B6A619471FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="334">
   <si>
-    <t>cwid</t>
-  </si>
-  <si>
     <t>resp_order</t>
   </si>
   <si>
@@ -1263,6 +1260,10 @@
     <rPh sb="0" eb="4">
       <t xml:space="preserve">コヨウケイタイ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1341,9 +1342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1381,7 +1382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1487,7 +1488,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1629,7 +1630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1641,7 +1642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1652,34 +1653,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1693,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1719,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1746,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1773,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1800,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1827,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1853,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1880,7 +1881,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1895,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1912,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1938,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1965,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1980,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1994,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2020,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2046,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2061,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2075,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2102,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2129,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2156,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2183,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2210,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2237,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -2263,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2290,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2316,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -2342,7 +2343,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2369,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2384,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2398,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2424,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2450,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2477,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2504,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2530,7 +2531,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2557,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2584,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2611,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2626,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -2643,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2658,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2672,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2699,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2725,7 +2726,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2752,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2767,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2781,7 +2782,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2807,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2834,7 +2835,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2849,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -2866,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -2892,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -2918,7 +2919,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2945,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -2971,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2986,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3000,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -3027,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3042,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3056,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -3083,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3098,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3112,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3138,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -3165,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3192,7 +3193,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -3219,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -3245,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3272,7 +3273,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3298,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3313,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -3330,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -3346,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3360,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -3376,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3390,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3406,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3420,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3436,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3450,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -3466,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3480,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -3507,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3533,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -3548,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -3565,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3591,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -3618,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -3645,7 +3646,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -3672,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3699,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -3726,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -3752,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -3779,7 +3780,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -3806,7 +3807,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3833,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3861,7 +3862,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3887,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3913,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3928,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3942,7 +3943,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -3957,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3971,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -3986,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -4003,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -4030,7 +4031,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -4045,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4059,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -4074,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4088,7 +4089,7 @@
         <v>15</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4115,7 +4116,7 @@
         <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4142,7 +4143,7 @@
         <v>17</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -4169,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4195,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4222,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4237,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4251,7 +4252,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4266,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4280,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -4307,7 +4308,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4322,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4336,7 +4337,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4351,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4365,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -4391,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -4406,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4420,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4435,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -4452,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4478,7 +4479,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4504,7 +4505,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -4530,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4545,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4559,7 +4560,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -4586,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -4601,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4615,7 +4616,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -4642,7 +4643,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4657,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4671,7 +4672,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -4698,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4713,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4727,7 +4728,7 @@
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4743,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4757,7 +4758,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4772,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
@@ -4789,7 +4790,7 @@
         <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E114" s="1">
         <v>0</v>
@@ -4815,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
@@ -4842,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
@@ -4869,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -4896,7 +4897,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -4922,7 +4923,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -4948,7 +4949,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -4974,7 +4975,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -5001,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -5028,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -5054,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -5081,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -5107,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -5122,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5136,7 +5137,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
@@ -5163,7 +5164,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -5190,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -5205,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J129" s="1">
         <v>1</v>
@@ -5222,7 +5223,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E130" s="1">
         <v>0</v>
@@ -5248,7 +5249,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
@@ -5274,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -5301,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E133" s="1">
         <v>0</v>
@@ -5327,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E134" s="1">
         <v>0</v>
@@ -5354,7 +5355,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
@@ -5380,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -5407,7 +5408,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E137" s="1">
         <v>0</v>
@@ -5422,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5436,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
@@ -5463,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -5490,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
@@ -5516,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E141" s="1">
         <v>0</v>
@@ -5542,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
@@ -5569,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -5596,7 +5597,7 @@
         <v>7</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
@@ -5623,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -5638,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5652,7 +5653,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E146" s="1">
         <v>0</v>
@@ -5678,7 +5679,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E147" s="1">
         <v>0</v>
@@ -5704,7 +5705,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
@@ -5731,7 +5732,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149" s="1">
         <v>0</v>
@@ -5757,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -5784,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -5811,7 +5812,7 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E152" s="1">
         <v>0</v>
@@ -5826,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5840,7 +5841,7 @@
         <v>4</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -5867,7 +5868,7 @@
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
@@ -5894,7 +5895,7 @@
         <v>6</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E155" s="1">
         <v>0</v>
@@ -5909,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5923,7 +5924,7 @@
         <v>7</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E156" s="1">
         <v>0</v>
@@ -5949,7 +5950,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E157" s="1">
         <v>0</v>
@@ -5975,7 +5976,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
@@ -6002,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E159" s="1">
         <v>0</v>
@@ -6017,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6031,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
@@ -6058,7 +6059,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E161" s="1">
         <v>1</v>
@@ -6085,7 +6086,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
@@ -6112,7 +6113,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E163" s="1">
         <v>0</v>
@@ -6127,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6141,7 +6142,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E164" s="1">
         <v>0</v>
@@ -6156,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6170,7 +6171,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E165" s="1">
         <v>0</v>
@@ -6196,7 +6197,7 @@
         <v>7</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
@@ -6223,7 +6224,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E167" s="1">
         <v>0</v>
@@ -6249,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E168" s="1">
         <v>0</v>
@@ -6275,7 +6276,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E169" s="1">
         <v>0</v>
@@ -6290,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6304,7 +6305,7 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E170" s="1">
         <v>0</v>
@@ -6319,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6333,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -6360,7 +6361,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -6387,7 +6388,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -6414,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -6441,7 +6442,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E175" s="1">
         <v>0</v>
@@ -6467,7 +6468,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E176" s="1">
         <v>0</v>
@@ -6493,7 +6494,7 @@
         <v>10</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E177" s="1">
         <v>0</v>
@@ -6508,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6522,7 +6523,7 @@
         <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E178" s="1">
         <v>0</v>
@@ -6537,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6551,7 +6552,7 @@
         <v>12</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E179" s="1">
         <v>0</v>
@@ -6566,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6580,7 +6581,7 @@
         <v>13</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E180" s="1">
         <v>0</v>
@@ -6607,7 +6608,7 @@
         <v>14</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E181" s="1">
         <v>0</v>
@@ -6633,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E182" s="1">
         <v>0</v>
@@ -6659,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E183" s="1">
         <v>0</v>
@@ -6685,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -6712,7 +6713,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -6739,7 +6740,7 @@
         <v>5</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
@@ -6766,7 +6767,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E187" s="1">
         <v>0</v>
@@ -6792,7 +6793,7 @@
         <v>7</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E188" s="1">
         <v>0</v>
@@ -6818,7 +6819,7 @@
         <v>8</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -6845,7 +6846,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E190" s="1">
         <v>0</v>
@@ -6861,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6875,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
@@ -6902,7 +6903,7 @@
         <v>2</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E192" s="1">
         <v>0</v>
@@ -6917,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J192" s="1">
         <v>1</v>
@@ -6934,7 +6935,7 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -6960,7 +6961,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -6987,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E195" s="1">
         <v>0</v>
@@ -7002,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7016,7 +7017,7 @@
         <v>6</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E196" s="1">
         <v>0</v>
@@ -7031,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7045,7 +7046,7 @@
         <v>7</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
@@ -7072,7 +7073,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E198" s="1">
         <v>0</v>
@@ -7087,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J198" s="1">
         <v>1</v>
@@ -7104,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -7131,7 +7132,7 @@
         <v>2</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E200" s="1">
         <v>0</v>
@@ -7146,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7160,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -7187,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
@@ -7202,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7216,7 +7217,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -7242,7 +7243,7 @@
         <v>6</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E204" s="1">
         <v>0</v>
@@ -7268,7 +7269,7 @@
         <v>7</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E205" s="1">
         <v>0</v>
@@ -7295,7 +7296,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -7322,7 +7323,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E207" s="1">
         <v>0</v>
@@ -7337,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J207" s="1">
         <v>1</v>
@@ -7354,7 +7355,7 @@
         <v>10</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E208" s="1">
         <v>0</v>
@@ -7369,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7383,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -7410,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E210" s="1">
         <v>0</v>
@@ -7425,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7439,7 +7440,7 @@
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -7466,7 +7467,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -7493,7 +7494,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E213" s="1">
         <v>0</v>
@@ -7519,7 +7520,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E214" s="1">
         <v>0</v>
@@ -7546,7 +7547,7 @@
         <v>7</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E215" s="1">
         <v>0</v>
@@ -7572,7 +7573,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -7598,7 +7599,7 @@
         <v>9</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E217" s="1">
         <v>0</v>
@@ -7613,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7627,7 +7628,7 @@
         <v>10</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
@@ -7654,7 +7655,7 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -7669,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7683,7 +7684,7 @@
         <v>12</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -7710,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
@@ -7737,7 +7738,7 @@
         <v>2</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E222" s="1">
         <v>1</v>
@@ -7764,7 +7765,7 @@
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E223" s="1">
         <v>0</v>
@@ -7790,7 +7791,7 @@
         <v>4</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E224" s="1">
         <v>0</v>
@@ -7816,7 +7817,7 @@
         <v>5</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -7831,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -7845,7 +7846,7 @@
         <v>6</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E226" s="1">
         <v>0</v>
@@ -7861,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7875,7 +7876,7 @@
         <v>7</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E227" s="1">
         <v>0</v>
@@ -7890,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J227" s="1">
         <v>1</v>
@@ -7907,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E228" s="1">
         <v>1</v>
@@ -7934,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E229" s="1">
         <v>0</v>
@@ -7949,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7963,7 +7964,7 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E230" s="1">
         <v>1</v>
@@ -7990,7 +7991,7 @@
         <v>4</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E231" s="1">
         <v>0</v>
@@ -8016,7 +8017,7 @@
         <v>5</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E232" s="1">
         <v>1</v>
@@ -8043,7 +8044,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -8069,7 +8070,7 @@
         <v>7</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E234" s="1">
         <v>0</v>
@@ -8095,7 +8096,7 @@
         <v>8</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E235" s="1">
         <v>1</v>
@@ -8122,7 +8123,7 @@
         <v>9</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E236" s="1">
         <v>1</v>
@@ -8149,7 +8150,7 @@
         <v>10</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -8164,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8178,7 +8179,7 @@
         <v>11</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E238" s="1">
         <v>1</v>
@@ -8205,7 +8206,7 @@
         <v>12</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E239" s="1">
         <v>0</v>
@@ -8231,7 +8232,7 @@
         <v>13</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E240" s="1">
         <v>1</v>
@@ -8258,7 +8259,7 @@
         <v>14</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E241" s="1">
         <v>0</v>
@@ -8285,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E242" s="1">
         <v>1</v>
@@ -8312,7 +8313,7 @@
         <v>2</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E243" s="1">
         <v>1</v>
@@ -8339,7 +8340,7 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E244" s="1">
         <v>0</v>
@@ -8365,7 +8366,7 @@
         <v>4</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E245" s="1">
         <v>0</v>
@@ -8391,7 +8392,7 @@
         <v>5</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
@@ -8418,7 +8419,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E247" s="1">
         <v>1</v>
@@ -8445,7 +8446,7 @@
         <v>7</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
@@ -8472,7 +8473,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E249" s="1">
         <v>1</v>
@@ -8499,7 +8500,7 @@
         <v>9</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E250" s="1">
         <v>0</v>
@@ -8525,7 +8526,7 @@
         <v>10</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E251" s="1">
         <v>1</v>
@@ -8552,7 +8553,7 @@
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E252" s="1">
         <v>1</v>
@@ -8579,7 +8580,7 @@
         <v>12</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E253" s="1">
         <v>0</v>
@@ -8605,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E254" s="1">
         <v>0</v>
@@ -8620,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8634,7 +8635,7 @@
         <v>2</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E255" s="1">
         <v>1</v>
@@ -8661,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -8688,7 +8689,7 @@
         <v>4</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
@@ -8715,7 +8716,7 @@
         <v>5</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E258" s="1">
         <v>0</v>
@@ -8741,7 +8742,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E259" s="1">
         <v>1</v>
@@ -8768,7 +8769,7 @@
         <v>7</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E260" s="1">
         <v>1</v>
@@ -8795,7 +8796,7 @@
         <v>8</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
@@ -8810,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="I261" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -8824,7 +8825,7 @@
         <v>9</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
@@ -8839,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="I262" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -8853,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -8868,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -8882,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -8908,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -8934,7 +8935,7 @@
         <v>4</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -8949,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -8963,7 +8964,7 @@
         <v>5</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E267" s="1">
         <v>1</v>
@@ -8990,7 +8991,7 @@
         <v>6</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E268" s="1">
         <v>1</v>
@@ -9017,7 +9018,7 @@
         <v>7</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E269" s="1">
         <v>1</v>
@@ -9044,7 +9045,7 @@
         <v>8</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E270" s="1">
         <v>0</v>
@@ -9070,7 +9071,7 @@
         <v>9</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -9096,7 +9097,7 @@
         <v>10</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E272" s="1">
         <v>0</v>
@@ -9111,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J272" s="1">
         <v>1</v>
@@ -9128,7 +9129,7 @@
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E273" s="1">
         <v>1</v>
@@ -9155,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E274" s="1">
         <v>0</v>
@@ -9170,7 +9171,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9184,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E275" s="1">
         <v>0</v>
@@ -9210,7 +9211,7 @@
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E276" s="1">
         <v>1</v>
@@ -9237,7 +9238,7 @@
         <v>4</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E277" s="1">
         <v>0</v>
@@ -9263,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E278" s="1">
         <v>1</v>
@@ -9290,7 +9291,7 @@
         <v>2</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E279" s="1">
         <v>1</v>
@@ -9317,7 +9318,7 @@
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E280" s="1">
         <v>0</v>
@@ -9343,7 +9344,7 @@
         <v>4</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E281" s="1">
         <v>1</v>
@@ -9370,7 +9371,7 @@
         <v>5</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E282" s="1">
         <v>1</v>
@@ -9397,7 +9398,7 @@
         <v>6</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E283" s="1">
         <v>1</v>
@@ -9424,7 +9425,7 @@
         <v>7</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E284" s="1">
         <v>0</v>
@@ -9450,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E285" s="1">
         <v>0</v>
@@ -9477,7 +9478,7 @@
         <v>2</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E286" s="1">
         <v>0</v>
@@ -9493,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -9507,7 +9508,7 @@
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E287" s="1">
         <v>0</v>
@@ -9523,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -9537,7 +9538,7 @@
         <v>4</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E288" s="1">
         <v>0</v>
@@ -9553,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -9567,7 +9568,7 @@
         <v>5</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E289" s="1">
         <v>0</v>
@@ -9583,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -9597,7 +9598,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E290" s="1">
         <v>0</v>
@@ -9613,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -9627,7 +9628,7 @@
         <v>7</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E291" s="1">
         <v>0</v>
@@ -9643,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -9657,7 +9658,7 @@
         <v>8</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E292" s="1">
         <v>0</v>
@@ -9673,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -9687,7 +9688,7 @@
         <v>9</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E293" s="1">
         <v>0</v>
@@ -9703,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -9717,7 +9718,7 @@
         <v>10</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E294" s="1">
         <v>0</v>
@@ -9733,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -9747,7 +9748,7 @@
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E295" s="1">
         <v>0</v>
@@ -9763,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -9777,7 +9778,7 @@
         <v>12</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E296" s="1">
         <v>0</v>
@@ -9793,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -9807,7 +9808,7 @@
         <v>13</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E297" s="1">
         <v>0</v>
@@ -9823,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -9837,7 +9838,7 @@
         <v>14</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E298" s="1">
         <v>0</v>
@@ -9853,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -9867,7 +9868,7 @@
         <v>15</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E299" s="1">
         <v>0</v>
@@ -9883,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -9897,7 +9898,7 @@
         <v>16</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E300" s="1">
         <v>0</v>
@@ -9913,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -9927,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E301" s="1">
         <v>0</v>
@@ -9953,7 +9954,7 @@
         <v>2</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E302" s="1">
         <v>1</v>
@@ -9980,7 +9981,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E303" s="1">
         <v>1</v>
@@ -10007,7 +10008,7 @@
         <v>4</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E304" s="1">
         <v>1</v>
@@ -10034,7 +10035,7 @@
         <v>5</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E305" s="1">
         <v>0</v>
@@ -10060,7 +10061,7 @@
         <v>6</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E306" s="1">
         <v>1</v>
@@ -10087,7 +10088,7 @@
         <v>7</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E307" s="1">
         <v>0</v>
@@ -10102,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="I307" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J307" s="1">
         <v>1</v>
@@ -10119,7 +10120,7 @@
         <v>8</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E308" s="1">
         <v>0</v>
@@ -10145,7 +10146,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E309" s="1">
         <v>0</v>
@@ -10160,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="I309" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -10174,7 +10175,7 @@
         <v>10</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E310" s="1">
         <v>0</v>
@@ -10200,7 +10201,7 @@
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E311" s="1">
         <v>1</v>
@@ -10227,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E312" s="1">
         <v>1</v>
@@ -10254,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E313" s="1">
         <v>1</v>
@@ -10281,7 +10282,7 @@
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E314" s="1">
         <v>0</v>
@@ -10296,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="I314" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -10310,7 +10311,7 @@
         <v>4</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E315" s="1">
         <v>1</v>
@@ -10337,7 +10338,7 @@
         <v>5</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E316" s="1">
         <v>0</v>
@@ -10352,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="I316" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -10366,7 +10367,7 @@
         <v>6</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E317" s="1">
         <v>0</v>
@@ -10393,7 +10394,7 @@
         <v>7</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E318" s="1">
         <v>0</v>
@@ -10408,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -10422,7 +10423,7 @@
         <v>8</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E319" s="1">
         <v>0</v>
@@ -10448,7 +10449,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E320" s="1">
         <v>0</v>
@@ -10474,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E321" s="1">
         <v>1</v>
@@ -10501,7 +10502,7 @@
         <v>2</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E322" s="1">
         <v>0</v>
@@ -10527,7 +10528,7 @@
         <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E323" s="1">
         <v>1</v>
@@ -10554,7 +10555,7 @@
         <v>4</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E324" s="1">
         <v>1</v>
@@ -10581,7 +10582,7 @@
         <v>5</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E325" s="1">
         <v>0</v>
@@ -10607,7 +10608,7 @@
         <v>6</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E326" s="1">
         <v>1</v>
@@ -10634,7 +10635,7 @@
         <v>7</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E327" s="1">
         <v>1</v>
@@ -10661,7 +10662,7 @@
         <v>8</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E328" s="1">
         <v>1</v>
@@ -10688,7 +10689,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E329" s="1">
         <v>1</v>
@@ -10715,7 +10716,7 @@
         <v>10</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E330" s="1">
         <v>0</v>
@@ -10730,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="I330" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -10744,7 +10745,7 @@
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E331" s="1">
         <v>0</v>
@@ -10770,7 +10771,7 @@
         <v>12</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E332" s="1">
         <v>0</v>
@@ -10797,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E333" s="1">
         <v>1</v>
@@ -10824,7 +10825,7 @@
         <v>2</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E334" s="1">
         <v>1</v>
@@ -10851,7 +10852,7 @@
         <v>3</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E335" s="1">
         <v>0</v>
@@ -10877,7 +10878,7 @@
         <v>4</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E336" s="1">
         <v>1</v>
@@ -10904,7 +10905,7 @@
         <v>5</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E337" s="1">
         <v>1</v>
@@ -10931,7 +10932,7 @@
         <v>6</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E338" s="1">
         <v>0</v>
@@ -10957,7 +10958,7 @@
         <v>7</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E339" s="1">
         <v>0</v>
@@ -10972,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -10986,7 +10987,7 @@
         <v>8</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E340" s="1">
         <v>0</v>
@@ -11013,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E341" s="1">
         <v>0</v>
@@ -11039,7 +11040,7 @@
         <v>2</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E342" s="1">
         <v>1</v>
@@ -11066,7 +11067,7 @@
         <v>3</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E343" s="1">
         <v>1</v>
@@ -11093,7 +11094,7 @@
         <v>4</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E344" s="1">
         <v>1</v>
@@ -11120,7 +11121,7 @@
         <v>5</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E345" s="1">
         <v>0</v>
@@ -11135,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J345" s="1">
         <v>1</v>
@@ -11152,7 +11153,7 @@
         <v>6</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E346" s="1">
         <v>0</v>
@@ -11167,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="I346" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -11181,7 +11182,7 @@
         <v>7</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E347" s="1">
         <v>0</v>
@@ -11196,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="I347" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -11210,7 +11211,7 @@
         <v>8</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E348" s="1">
         <v>1</v>
@@ -11237,7 +11238,7 @@
         <v>9</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E349" s="1">
         <v>0</v>
@@ -11263,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E350" s="1">
         <v>1</v>
@@ -11290,7 +11291,7 @@
         <v>2</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E351" s="1">
         <v>1</v>
@@ -11317,7 +11318,7 @@
         <v>3</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E352" s="1">
         <v>1</v>
@@ -11344,7 +11345,7 @@
         <v>4</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E353" s="1">
         <v>1</v>
@@ -11371,7 +11372,7 @@
         <v>5</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E354" s="1">
         <v>1</v>
@@ -11398,7 +11399,7 @@
         <v>6</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E355" s="1">
         <v>1</v>
@@ -11425,7 +11426,7 @@
         <v>7</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E356" s="1">
         <v>1</v>
@@ -11452,7 +11453,7 @@
         <v>8</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E357" s="1">
         <v>1</v>
@@ -11479,7 +11480,7 @@
         <v>9</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E358" s="1">
         <v>0</v>
@@ -11505,7 +11506,7 @@
         <v>10</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E359" s="1">
         <v>1</v>
@@ -11532,7 +11533,7 @@
         <v>11</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E360" s="1">
         <v>0</v>
@@ -11558,7 +11559,7 @@
         <v>12</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E361" s="1">
         <v>0</v>
@@ -11573,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -11587,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E362" s="1">
         <v>0</v>
@@ -11602,7 +11603,7 @@
         <v>1</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -11616,7 +11617,7 @@
         <v>2</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E363" s="1">
         <v>0</v>
@@ -11642,7 +11643,7 @@
         <v>3</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E364" s="1">
         <v>1</v>
@@ -11669,7 +11670,7 @@
         <v>4</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E365" s="1">
         <v>0</v>
@@ -11695,7 +11696,7 @@
         <v>5</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E366" s="1">
         <v>1</v>
@@ -11722,7 +11723,7 @@
         <v>6</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E367" s="1">
         <v>0</v>
@@ -11737,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="I367" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -11751,7 +11752,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E368" s="1">
         <v>1</v>
@@ -11778,7 +11779,7 @@
         <v>8</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E369" s="1">
         <v>0</v>
@@ -11804,7 +11805,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E370" s="1">
         <v>1</v>
@@ -11831,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E371" s="1">
         <v>0</v>
@@ -11857,7 +11858,7 @@
         <v>2</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E372" s="1">
         <v>0</v>
@@ -11883,7 +11884,7 @@
         <v>3</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E373" s="1">
         <v>0</v>
@@ -11909,7 +11910,7 @@
         <v>4</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E374" s="1">
         <v>0</v>
@@ -11935,7 +11936,7 @@
         <v>5</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E375" s="1">
         <v>0</v>
@@ -11962,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E376" s="1">
         <v>1</v>
@@ -11989,7 +11990,7 @@
         <v>2</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E377" s="1">
         <v>1</v>
@@ -12016,7 +12017,7 @@
         <v>3</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E378" s="1">
         <v>0</v>
@@ -12042,7 +12043,7 @@
         <v>4</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E379" s="1">
         <v>0</v>
@@ -12068,7 +12069,7 @@
         <v>5</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E380" s="1">
         <v>0</v>
@@ -12094,7 +12095,7 @@
         <v>6</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E381" s="1">
         <v>0</v>
@@ -12120,7 +12121,7 @@
         <v>7</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E382" s="1">
         <v>0</v>
@@ -12146,7 +12147,7 @@
         <v>8</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E383" s="1">
         <v>0</v>
@@ -12161,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="I383" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -12175,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E384" s="1">
         <v>1</v>
@@ -12202,7 +12203,7 @@
         <v>2</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E385" s="1">
         <v>0</v>
@@ -12228,7 +12229,7 @@
         <v>3</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E386" s="1">
         <v>1</v>
@@ -12255,7 +12256,7 @@
         <v>4</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E387" s="1">
         <v>1</v>
@@ -12282,7 +12283,7 @@
         <v>5</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E388" s="1">
         <v>1</v>
@@ -12309,7 +12310,7 @@
         <v>6</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E389" s="1">
         <v>1</v>
@@ -12336,7 +12337,7 @@
         <v>7</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E390" s="1">
         <v>0</v>
@@ -12362,7 +12363,7 @@
         <v>8</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E391" s="1">
         <v>0</v>
@@ -12388,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E392" s="1">
         <v>0</v>
@@ -12404,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -12418,7 +12419,7 @@
         <v>2</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E393" s="1">
         <v>0</v>
@@ -12434,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -12448,7 +12449,7 @@
         <v>3</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E394" s="1">
         <v>0</v>
@@ -12464,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -12478,7 +12479,7 @@
         <v>4</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E395" s="1">
         <v>0</v>
@@ -12494,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -12508,7 +12509,7 @@
         <v>5</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E396" s="1">
         <v>0</v>
@@ -12524,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -12538,7 +12539,7 @@
         <v>6</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E397" s="1">
         <v>0</v>
@@ -12554,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -12568,7 +12569,7 @@
         <v>7</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E398" s="1">
         <v>0</v>
@@ -12584,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -12598,7 +12599,7 @@
         <v>8</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E399" s="1">
         <v>0</v>
@@ -12614,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -12628,7 +12629,7 @@
         <v>9</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E400" s="1">
         <v>0</v>
@@ -12644,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -12658,7 +12659,7 @@
         <v>10</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E401" s="1">
         <v>0</v>
@@ -12674,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -12688,7 +12689,7 @@
         <v>11</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E402" s="1">
         <v>0</v>
@@ -12704,7 +12705,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -12718,7 +12719,7 @@
         <v>12</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E403" s="1">
         <v>0</v>
@@ -12734,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -12748,7 +12749,7 @@
         <v>13</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E404" s="1">
         <v>0</v>
@@ -12764,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -12778,7 +12779,7 @@
         <v>14</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E405" s="1">
         <v>0</v>
@@ -12794,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -12808,7 +12809,7 @@
         <v>15</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E406" s="1">
         <v>0</v>
@@ -12824,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -12838,7 +12839,7 @@
         <v>16</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E407" s="1">
         <v>0</v>
@@ -12854,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -12868,7 +12869,7 @@
         <v>17</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E408" s="1">
         <v>0</v>
@@ -12884,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -12898,7 +12899,7 @@
         <v>18</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E409" s="1">
         <v>0</v>
@@ -12914,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -12928,7 +12929,7 @@
         <v>19</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E410" s="1">
         <v>0</v>
@@ -12944,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -12958,7 +12959,7 @@
         <v>20</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E411" s="1">
         <v>0</v>
@@ -12974,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -12988,7 +12989,7 @@
         <v>21</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E412" s="1">
         <v>0</v>
@@ -13004,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -13018,7 +13019,7 @@
         <v>22</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E413" s="1">
         <v>0</v>
@@ -13034,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -13048,7 +13049,7 @@
         <v>23</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E414" s="1">
         <v>0</v>
@@ -13064,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -13078,7 +13079,7 @@
         <v>24</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E415" s="1">
         <v>0</v>
@@ -13094,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -13108,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E416" s="1">
         <v>1</v>
@@ -13135,7 +13136,7 @@
         <v>2</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E417" s="1">
         <v>0</v>
@@ -13161,7 +13162,7 @@
         <v>3</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E418" s="1">
         <v>0</v>
@@ -13187,7 +13188,7 @@
         <v>4</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E419" s="1">
         <v>1</v>
@@ -13214,7 +13215,7 @@
         <v>5</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E420" s="1">
         <v>0</v>
@@ -13229,7 +13230,7 @@
         <v>1</v>
       </c>
       <c r="I420" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -13243,7 +13244,7 @@
         <v>6</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E421" s="1">
         <v>0</v>
@@ -13258,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="I421" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -13272,7 +13273,7 @@
         <v>7</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E422" s="1">
         <v>0</v>
@@ -13287,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="I422" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -13301,7 +13302,7 @@
         <v>8</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E423" s="1">
         <v>1</v>
@@ -13328,7 +13329,7 @@
         <v>9</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E424" s="1">
         <v>1</v>
@@ -13355,7 +13356,7 @@
         <v>10</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E425" s="1">
         <v>1</v>
@@ -13382,7 +13383,7 @@
         <v>11</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E426" s="1">
         <v>1</v>
@@ -13409,7 +13410,7 @@
         <v>12</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E427" s="1">
         <v>0</v>
@@ -13435,7 +13436,7 @@
         <v>13</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E428" s="1">
         <v>0</v>
@@ -13462,7 +13463,7 @@
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E429" s="1">
         <v>0</v>
@@ -13488,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E430" s="1">
         <v>0</v>
@@ -13503,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="I430" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -13517,7 +13518,7 @@
         <v>3</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E431" s="1">
         <v>1</v>
@@ -13544,7 +13545,7 @@
         <v>4</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E432" s="1">
         <v>0</v>
@@ -13570,7 +13571,7 @@
         <v>5</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E433" s="1">
         <v>0</v>
@@ -13596,7 +13597,7 @@
         <v>6</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E434" s="1">
         <v>1</v>
@@ -13623,7 +13624,7 @@
         <v>7</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E435" s="1">
         <v>1</v>
@@ -13650,7 +13651,7 @@
         <v>8</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E436" s="1">
         <v>0</v>
@@ -13677,7 +13678,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E437" s="1">
         <v>0</v>
@@ -13703,7 +13704,7 @@
         <v>2</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E438" s="1">
         <v>1</v>
@@ -13730,7 +13731,7 @@
         <v>3</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E439" s="1">
         <v>0</v>
@@ -13756,7 +13757,7 @@
         <v>4</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E440" s="1">
         <v>1</v>
@@ -13783,7 +13784,7 @@
         <v>5</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E441" s="1">
         <v>0</v>
@@ -13809,7 +13810,7 @@
         <v>6</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E442" s="1">
         <v>1</v>
@@ -13836,7 +13837,7 @@
         <v>7</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E443" s="1">
         <v>1</v>
@@ -13863,7 +13864,7 @@
         <v>8</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E444" s="1">
         <v>1</v>
@@ -13890,7 +13891,7 @@
         <v>9</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E445" s="1">
         <v>1</v>
@@ -13917,7 +13918,7 @@
         <v>10</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E446" s="1">
         <v>0</v>
@@ -13943,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E447" s="1">
         <v>0</v>
@@ -13958,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -13972,7 +13973,7 @@
         <v>2</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E448" s="1">
         <v>0</v>
@@ -13998,7 +13999,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E449" s="1">
         <v>0</v>
@@ -14024,7 +14025,7 @@
         <v>4</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E450" s="1">
         <v>0</v>
@@ -14050,7 +14051,7 @@
         <v>5</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E451" s="1">
         <v>0</v>
@@ -14065,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -14079,7 +14080,7 @@
         <v>6</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E452" s="1">
         <v>0</v>
@@ -14094,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="I452" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -14108,7 +14109,7 @@
         <v>7</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E453" s="1">
         <v>0</v>
@@ -14134,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E454" s="1">
         <v>0</v>
@@ -14149,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="I454" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="455" spans="1:10">
@@ -14163,7 +14164,7 @@
         <v>2</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E455" s="1">
         <v>0</v>
@@ -14189,7 +14190,7 @@
         <v>3</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E456" s="1">
         <v>0</v>
@@ -14215,7 +14216,7 @@
         <v>4</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E457" s="1">
         <v>0</v>
@@ -14230,7 +14231,7 @@
         <v>1</v>
       </c>
       <c r="I457" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J457" s="1">
         <v>1</v>
@@ -14247,7 +14248,7 @@
         <v>5</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E458" s="1">
         <v>0</v>
@@ -14273,7 +14274,7 @@
         <v>6</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E459" s="1">
         <v>1</v>
@@ -14300,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E460" s="1">
         <v>0</v>
@@ -14327,7 +14328,7 @@
         <v>2</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E461" s="1">
         <v>0</v>
@@ -14353,7 +14354,7 @@
         <v>3</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E462" s="1">
         <v>0</v>
@@ -14368,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="463" spans="1:10">
@@ -14382,7 +14383,7 @@
         <v>4</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E463" s="1">
         <v>0</v>
@@ -14408,7 +14409,7 @@
         <v>5</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E464" s="1">
         <v>1</v>
@@ -14435,7 +14436,7 @@
         <v>6</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E465" s="1">
         <v>0</v>
@@ -14450,7 +14451,7 @@
         <v>1</v>
       </c>
       <c r="I465" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="466" spans="1:10">
@@ -14464,7 +14465,7 @@
         <v>7</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E466" s="1">
         <v>0</v>
@@ -14479,7 +14480,7 @@
         <v>1</v>
       </c>
       <c r="I466" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="467" spans="1:10">
@@ -14493,7 +14494,7 @@
         <v>8</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E467" s="1">
         <v>0</v>
@@ -14519,7 +14520,7 @@
         <v>1</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E468" s="1">
         <v>0</v>
@@ -14534,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="I468" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="469" spans="1:10">
@@ -14548,7 +14549,7 @@
         <v>2</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E469" s="1">
         <v>1</v>
@@ -14575,7 +14576,7 @@
         <v>3</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E470" s="1">
         <v>1</v>
@@ -14602,7 +14603,7 @@
         <v>4</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E471" s="1">
         <v>0</v>
@@ -14628,7 +14629,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E472" s="1">
         <v>0</v>
@@ -14654,7 +14655,7 @@
         <v>6</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E473" s="1">
         <v>0</v>
@@ -14680,7 +14681,7 @@
         <v>7</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E474" s="1">
         <v>0</v>
@@ -14706,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E475" s="1">
         <v>0</v>
@@ -14721,7 +14722,7 @@
         <v>1</v>
       </c>
       <c r="I475" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J475" s="1">
         <v>1</v>
@@ -14738,7 +14739,7 @@
         <v>2</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E476" s="1">
         <v>0</v>
@@ -14764,7 +14765,7 @@
         <v>3</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E477" s="1">
         <v>0</v>
@@ -14779,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="I477" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J477" s="1">
         <v>1</v>
@@ -14796,7 +14797,7 @@
         <v>4</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E478" s="1">
         <v>0</v>
@@ -14811,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="I478" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J478" s="1">
         <v>1</v>
@@ -14828,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E479" s="1">
         <v>0</v>
@@ -14855,7 +14856,7 @@
         <v>2</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E480" s="1">
         <v>0</v>
@@ -14881,7 +14882,7 @@
         <v>3</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E481" s="1">
         <v>0</v>
@@ -14907,7 +14908,7 @@
         <v>4</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E482" s="1">
         <v>1</v>
@@ -14934,7 +14935,7 @@
         <v>5</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E483" s="1">
         <v>1</v>
@@ -14961,7 +14962,7 @@
         <v>6</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E484" s="1">
         <v>1</v>
@@ -14988,7 +14989,7 @@
         <v>7</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E485" s="1">
         <v>0</v>
@@ -15003,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="I485" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="486" spans="1:9">
@@ -15017,7 +15018,7 @@
         <v>8</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E486" s="1">
         <v>0</v>
@@ -15043,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E487" s="1">
         <v>1</v>
@@ -15070,7 +15071,7 @@
         <v>2</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E488" s="1">
         <v>1</v>
@@ -15097,7 +15098,7 @@
         <v>3</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E489" s="1">
         <v>1</v>
@@ -15124,7 +15125,7 @@
         <v>4</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E490" s="1">
         <v>1</v>
@@ -15151,7 +15152,7 @@
         <v>5</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E491" s="1">
         <v>1</v>
@@ -15178,7 +15179,7 @@
         <v>6</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E492" s="1">
         <v>0</v>
@@ -15204,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E493" s="1">
         <v>0</v>
@@ -15230,7 +15231,7 @@
         <v>2</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E494" s="1">
         <v>1</v>
@@ -15257,7 +15258,7 @@
         <v>3</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E495" s="1">
         <v>1</v>
@@ -15284,7 +15285,7 @@
         <v>4</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E496" s="1">
         <v>1</v>
@@ -15311,7 +15312,7 @@
         <v>5</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E497" s="1">
         <v>1</v>
@@ -15338,7 +15339,7 @@
         <v>6</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E498" s="1">
         <v>0</v>
@@ -15364,7 +15365,7 @@
         <v>7</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E499" s="1">
         <v>0</v>
@@ -15390,7 +15391,7 @@
         <v>8</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E500" s="1">
         <v>0</v>
@@ -15417,7 +15418,7 @@
         <v>9</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E501" s="1">
         <v>0</v>
@@ -15432,7 +15433,7 @@
         <v>1</v>
       </c>
       <c r="I501" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J501" s="1">
         <v>1</v>
@@ -15449,7 +15450,7 @@
         <v>10</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E502" s="1">
         <v>0</v>
@@ -15464,7 +15465,7 @@
         <v>1</v>
       </c>
       <c r="I502" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J502" s="1">
         <v>1</v>
@@ -15481,7 +15482,7 @@
         <v>11</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E503" s="1">
         <v>0</v>
@@ -15496,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="I503" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="504" spans="1:10">
@@ -15510,7 +15511,7 @@
         <v>12</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E504" s="1">
         <v>0</v>
@@ -15525,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="I504" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="505" spans="1:10">
@@ -15539,7 +15540,7 @@
         <v>13</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E505" s="1">
         <v>0</v>
@@ -15565,7 +15566,7 @@
         <v>14</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E506" s="1">
         <v>0</v>
@@ -15591,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E507" s="1">
         <v>1</v>
@@ -15618,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E508" s="1">
         <v>0</v>
@@ -15633,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="I508" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="509" spans="1:10">
@@ -15647,7 +15648,7 @@
         <v>3</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E509" s="1">
         <v>1</v>
@@ -15674,7 +15675,7 @@
         <v>4</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E510" s="1">
         <v>0</v>
@@ -15689,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="I510" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J510" s="1">
         <v>1</v>
@@ -15706,7 +15707,7 @@
         <v>5</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E511" s="1">
         <v>0</v>
@@ -15732,7 +15733,7 @@
         <v>6</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E512" s="1">
         <v>1</v>
@@ -15759,7 +15760,7 @@
         <v>7</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E513" s="1">
         <v>0</v>
@@ -15774,7 +15775,7 @@
         <v>1</v>
       </c>
       <c r="I513" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -15788,7 +15789,7 @@
         <v>8</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E514" s="1">
         <v>1</v>
@@ -15815,7 +15816,7 @@
         <v>9</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E515" s="1">
         <v>0</v>
@@ -15830,7 +15831,7 @@
         <v>1</v>
       </c>
       <c r="I515" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="516" spans="1:9">
@@ -15844,7 +15845,7 @@
         <v>10</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E516" s="1">
         <v>0</v>
@@ -15870,7 +15871,7 @@
         <v>11</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E517" s="1">
         <v>0</v>
@@ -15896,7 +15897,7 @@
         <v>12</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E518" s="1">
         <v>0</v>
@@ -15911,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="I518" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="519" spans="1:9">
@@ -15925,7 +15926,7 @@
         <v>13</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E519" s="1">
         <v>1</v>
@@ -15952,7 +15953,7 @@
         <v>14</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E520" s="1">
         <v>1</v>
@@ -15979,7 +15980,7 @@
         <v>15</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E521" s="1">
         <v>0</v>
@@ -16005,7 +16006,7 @@
         <v>16</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E522" s="1">
         <v>0</v>
@@ -16032,7 +16033,7 @@
         <v>17</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E523" s="1">
         <v>1</v>
@@ -16059,7 +16060,7 @@
         <v>18</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E524" s="1">
         <v>0</v>
@@ -16085,7 +16086,7 @@
         <v>19</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E525" s="1">
         <v>0</v>
@@ -16100,7 +16101,7 @@
         <v>1</v>
       </c>
       <c r="I525" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="526" spans="1:9">
@@ -16114,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E526" s="1">
         <v>0</v>
@@ -16129,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="I526" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -16143,7 +16144,7 @@
         <v>2</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E527" s="1">
         <v>1</v>
@@ -16170,7 +16171,7 @@
         <v>3</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E528" s="1">
         <v>1</v>
@@ -16197,7 +16198,7 @@
         <v>4</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E529" s="1">
         <v>1</v>
@@ -16224,7 +16225,7 @@
         <v>5</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E530" s="1">
         <v>0</v>
@@ -16250,7 +16251,7 @@
         <v>6</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E531" s="1">
         <v>0</v>
@@ -16277,7 +16278,7 @@
         <v>7</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E532" s="1">
         <v>1</v>
@@ -16304,7 +16305,7 @@
         <v>8</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E533" s="1">
         <v>0</v>
@@ -16331,7 +16332,7 @@
         <v>1</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E534" s="1">
         <v>0</v>
@@ -16347,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="535" spans="1:9">
@@ -16361,7 +16362,7 @@
         <v>2</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E535" s="1">
         <v>0</v>
@@ -16377,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="536" spans="1:9">
@@ -16391,7 +16392,7 @@
         <v>3</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E536" s="1">
         <v>0</v>
@@ -16407,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="537" spans="1:9">
@@ -16421,7 +16422,7 @@
         <v>4</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E537" s="1">
         <v>0</v>
@@ -16437,7 +16438,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="538" spans="1:9">
@@ -16451,7 +16452,7 @@
         <v>5</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E538" s="1">
         <v>0</v>
@@ -16467,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="539" spans="1:9">
@@ -16481,7 +16482,7 @@
         <v>6</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E539" s="1">
         <v>0</v>
@@ -16497,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="540" spans="1:9">
@@ -16511,7 +16512,7 @@
         <v>7</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E540" s="1">
         <v>0</v>
@@ -16527,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -16541,7 +16542,7 @@
         <v>8</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E541" s="1">
         <v>0</v>
@@ -16557,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -16571,7 +16572,7 @@
         <v>9</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E542" s="1">
         <v>0</v>
@@ -16587,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="543" spans="1:9">
@@ -16601,7 +16602,7 @@
         <v>10</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E543" s="1">
         <v>0</v>
@@ -16617,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="544" spans="1:9">
@@ -16631,7 +16632,7 @@
         <v>1</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E544" s="1">
         <v>0</v>
@@ -16657,7 +16658,7 @@
         <v>2</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E545" s="1">
         <v>0</v>
@@ -16673,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="546" spans="1:10">
@@ -16687,7 +16688,7 @@
         <v>3</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E546" s="1">
         <v>0</v>
@@ -16713,7 +16714,7 @@
         <v>4</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E547" s="1">
         <v>0</v>
@@ -16739,7 +16740,7 @@
         <v>5</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E548" s="1">
         <v>0</v>
@@ -16754,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="I548" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="549" spans="1:10">
@@ -16768,7 +16769,7 @@
         <v>6</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E549" s="1">
         <v>0</v>
@@ -16783,7 +16784,7 @@
         <v>1</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="550" spans="1:10">
@@ -16797,7 +16798,7 @@
         <v>7</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E550" s="1">
         <v>0</v>
@@ -16812,7 +16813,7 @@
         <v>1</v>
       </c>
       <c r="I550" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J550" s="1">
         <v>1</v>
@@ -16829,7 +16830,7 @@
         <v>8</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E551" s="1">
         <v>0</v>
@@ -16844,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="I551" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J551" s="1">
         <v>1</v>
@@ -16861,7 +16862,7 @@
         <v>9</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E552" s="1">
         <v>0</v>
@@ -16876,7 +16877,7 @@
         <v>1</v>
       </c>
       <c r="I552" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J552" s="1">
         <v>1</v>
@@ -16893,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E553" s="1">
         <v>1</v>
@@ -16920,7 +16921,7 @@
         <v>2</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E554" s="1">
         <v>1</v>
@@ -16947,7 +16948,7 @@
         <v>3</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E555" s="1">
         <v>1</v>
@@ -16974,7 +16975,7 @@
         <v>4</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E556" s="1">
         <v>0</v>
@@ -16989,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="I556" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="557" spans="1:10">
@@ -17003,7 +17004,7 @@
         <v>5</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E557" s="1">
         <v>0</v>
@@ -17029,7 +17030,7 @@
         <v>6</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E558" s="1">
         <v>1</v>
@@ -17056,7 +17057,7 @@
         <v>7</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E559" s="1">
         <v>0</v>
@@ -17071,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="I559" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="560" spans="1:10">
@@ -17085,7 +17086,7 @@
         <v>8</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E560" s="1">
         <v>1</v>
@@ -17112,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E561" s="1">
         <v>1</v>
@@ -17139,7 +17140,7 @@
         <v>2</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E562" s="1">
         <v>0</v>
@@ -17154,7 +17155,7 @@
         <v>1</v>
       </c>
       <c r="I562" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="563" spans="1:9">
@@ -17168,7 +17169,7 @@
         <v>3</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E563" s="1">
         <v>0</v>
@@ -17194,7 +17195,7 @@
         <v>4</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E564" s="1">
         <v>1</v>
@@ -17221,7 +17222,7 @@
         <v>5</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E565" s="1">
         <v>1</v>
@@ -17248,7 +17249,7 @@
         <v>6</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E566" s="1">
         <v>1</v>
@@ -17275,7 +17276,7 @@
         <v>7</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E567" s="1">
         <v>0</v>
@@ -17301,7 +17302,7 @@
         <v>8</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E568" s="1">
         <v>0</v>
@@ -17327,7 +17328,7 @@
         <v>9</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E569" s="1">
         <v>1</v>
@@ -17354,7 +17355,7 @@
         <v>10</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E570" s="1">
         <v>0</v>
@@ -17380,7 +17381,7 @@
         <v>1</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E571" s="1">
         <v>1</v>
@@ -17407,7 +17408,7 @@
         <v>2</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E572" s="1">
         <v>1</v>
@@ -17434,7 +17435,7 @@
         <v>3</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E573" s="1">
         <v>1</v>
@@ -17461,7 +17462,7 @@
         <v>4</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E574" s="1">
         <v>1</v>
@@ -17488,7 +17489,7 @@
         <v>5</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E575" s="1">
         <v>0</v>
@@ -17503,7 +17504,7 @@
         <v>1</v>
       </c>
       <c r="I575" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="576" spans="1:9">
@@ -17517,7 +17518,7 @@
         <v>6</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E576" s="1">
         <v>1</v>
@@ -17544,7 +17545,7 @@
         <v>7</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E577" s="1">
         <v>0</v>
@@ -17570,7 +17571,7 @@
         <v>8</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E578" s="1">
         <v>0</v>
@@ -17596,7 +17597,7 @@
         <v>9</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E579" s="1">
         <v>0</v>
@@ -17611,7 +17612,7 @@
         <v>1</v>
       </c>
       <c r="I579" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="580" spans="1:9">
@@ -17625,7 +17626,7 @@
         <v>10</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E580" s="1">
         <v>0</v>
@@ -17651,7 +17652,7 @@
         <v>11</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E581" s="1">
         <v>1</v>
@@ -17678,7 +17679,7 @@
         <v>1</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E582" s="1">
         <v>0</v>
@@ -17693,7 +17694,7 @@
         <v>1</v>
       </c>
       <c r="I582" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -17707,7 +17708,7 @@
         <v>2</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E583" s="1">
         <v>0</v>
@@ -17733,7 +17734,7 @@
         <v>3</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E584" s="1">
         <v>0</v>
@@ -17759,7 +17760,7 @@
         <v>4</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E585" s="1">
         <v>0</v>
@@ -17785,7 +17786,7 @@
         <v>5</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E586" s="1">
         <v>0</v>
@@ -17811,7 +17812,7 @@
         <v>6</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E587" s="1">
         <v>0</v>
@@ -17838,7 +17839,7 @@
         <v>1</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E588" s="1">
         <v>1</v>
@@ -17865,7 +17866,7 @@
         <v>2</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E589" s="1">
         <v>1</v>
@@ -17892,7 +17893,7 @@
         <v>3</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E590" s="1">
         <v>1</v>
@@ -17919,7 +17920,7 @@
         <v>4</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E591" s="1">
         <v>1</v>
@@ -17946,7 +17947,7 @@
         <v>5</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E592" s="1">
         <v>1</v>
@@ -17973,7 +17974,7 @@
         <v>6</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E593" s="1">
         <v>1</v>
@@ -18000,7 +18001,7 @@
         <v>7</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E594" s="1">
         <v>0</v>
@@ -18026,7 +18027,7 @@
         <v>1</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E595" s="1">
         <v>1</v>
@@ -18053,7 +18054,7 @@
         <v>2</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E596" s="1">
         <v>1</v>
@@ -18080,7 +18081,7 @@
         <v>3</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E597" s="1">
         <v>1</v>
@@ -18107,7 +18108,7 @@
         <v>4</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E598" s="1">
         <v>1</v>
@@ -18134,7 +18135,7 @@
         <v>5</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E599" s="1">
         <v>0</v>
@@ -18160,7 +18161,7 @@
         <v>6</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E600" s="1">
         <v>1</v>
@@ -18187,7 +18188,7 @@
         <v>7</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E601" s="1">
         <v>0</v>
@@ -18213,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E602" s="1">
         <v>0</v>
@@ -18239,7 +18240,7 @@
         <v>2</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E603" s="1">
         <v>1</v>
@@ -18266,7 +18267,7 @@
         <v>3</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E604" s="1">
         <v>1</v>
@@ -18293,7 +18294,7 @@
         <v>4</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E605" s="1">
         <v>0</v>
@@ -18319,7 +18320,7 @@
         <v>5</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E606" s="1">
         <v>0</v>
@@ -18334,7 +18335,7 @@
         <v>1</v>
       </c>
       <c r="I606" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="607" spans="1:9">
@@ -18348,7 +18349,7 @@
         <v>6</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E607" s="1">
         <v>0</v>
@@ -18374,7 +18375,7 @@
         <v>7</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E608" s="1">
         <v>1</v>
@@ -18401,7 +18402,7 @@
         <v>8</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E609" s="1">
         <v>1</v>
@@ -18428,7 +18429,7 @@
         <v>1</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E610" s="1">
         <v>1</v>
@@ -18455,7 +18456,7 @@
         <v>2</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E611" s="1">
         <v>0</v>
@@ -18481,7 +18482,7 @@
         <v>3</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E612" s="1">
         <v>1</v>
@@ -18508,7 +18509,7 @@
         <v>4</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E613" s="1">
         <v>1</v>
@@ -18535,7 +18536,7 @@
         <v>5</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E614" s="1">
         <v>1</v>
@@ -18562,7 +18563,7 @@
         <v>6</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E615" s="1">
         <v>1</v>
@@ -18589,7 +18590,7 @@
         <v>7</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E616" s="1">
         <v>0</v>
@@ -18616,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E617" s="1">
         <v>0</v>
@@ -18642,7 +18643,7 @@
         <v>2</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E618" s="1">
         <v>0</v>
@@ -18668,7 +18669,7 @@
         <v>3</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E619" s="1">
         <v>1</v>
@@ -18695,7 +18696,7 @@
         <v>4</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E620" s="1">
         <v>1</v>
@@ -18722,7 +18723,7 @@
         <v>5</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E621" s="1">
         <v>1</v>
@@ -18749,7 +18750,7 @@
         <v>6</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E622" s="1">
         <v>1</v>
@@ -18776,7 +18777,7 @@
         <v>7</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E623" s="1">
         <v>1</v>
@@ -18803,7 +18804,7 @@
         <v>8</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E624" s="1">
         <v>0</v>
@@ -18829,7 +18830,7 @@
         <v>9</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E625" s="1">
         <v>0</v>
@@ -18855,7 +18856,7 @@
         <v>1</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E626" s="1">
         <v>1</v>
@@ -18882,7 +18883,7 @@
         <v>2</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E627" s="1">
         <v>0</v>
@@ -18908,7 +18909,7 @@
         <v>3</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E628" s="1">
         <v>1</v>
@@ -18935,7 +18936,7 @@
         <v>4</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E629" s="1">
         <v>0</v>
@@ -18961,7 +18962,7 @@
         <v>5</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E630" s="1">
         <v>1</v>
@@ -18988,7 +18989,7 @@
         <v>6</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E631" s="1">
         <v>1</v>
@@ -19015,7 +19016,7 @@
         <v>7</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E632" s="1">
         <v>0</v>
@@ -19030,7 +19031,7 @@
         <v>1</v>
       </c>
       <c r="I632" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="633" spans="1:9">
@@ -19044,7 +19045,7 @@
         <v>1</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E633" s="1">
         <v>0</v>
@@ -19060,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="634" spans="1:9">
@@ -19074,7 +19075,7 @@
         <v>2</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E634" s="1">
         <v>0</v>
@@ -19090,7 +19091,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="635" spans="1:9">
@@ -19104,7 +19105,7 @@
         <v>3</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E635" s="1">
         <v>0</v>
@@ -19120,7 +19121,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="636" spans="1:9">
@@ -19134,7 +19135,7 @@
         <v>4</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E636" s="1">
         <v>0</v>
@@ -19150,7 +19151,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="637" spans="1:9">
@@ -19164,7 +19165,7 @@
         <v>5</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E637" s="1">
         <v>0</v>
@@ -19180,7 +19181,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="638" spans="1:9">
@@ -19194,7 +19195,7 @@
         <v>6</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E638" s="1">
         <v>0</v>
@@ -19210,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="639" spans="1:9">
@@ -19224,7 +19225,7 @@
         <v>7</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E639" s="1">
         <v>0</v>
@@ -19240,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="640" spans="1:9">
@@ -19254,7 +19255,7 @@
         <v>8</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E640" s="1">
         <v>0</v>
@@ -19270,7 +19271,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="641" spans="1:9">
@@ -19284,7 +19285,7 @@
         <v>9</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E641" s="1">
         <v>0</v>
@@ -19300,7 +19301,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="642" spans="1:9">
@@ -19314,7 +19315,7 @@
         <v>10</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E642" s="1">
         <v>0</v>
@@ -19330,7 +19331,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="643" spans="1:9">
@@ -19344,7 +19345,7 @@
         <v>11</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E643" s="1">
         <v>0</v>
@@ -19360,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="644" spans="1:9">
@@ -19374,7 +19375,7 @@
         <v>12</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E644" s="1">
         <v>0</v>
@@ -19390,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="645" spans="1:9">
@@ -19404,7 +19405,7 @@
         <v>13</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E645" s="1">
         <v>0</v>
@@ -19420,7 +19421,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="646" spans="1:9">
@@ -19434,7 +19435,7 @@
         <v>14</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E646" s="1">
         <v>0</v>
@@ -19450,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="647" spans="1:9">
@@ -19464,7 +19465,7 @@
         <v>15</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E647" s="1">
         <v>0</v>
@@ -19480,7 +19481,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="648" spans="1:9">
@@ -19494,7 +19495,7 @@
         <v>16</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E648" s="1">
         <v>0</v>
@@ -19521,7 +19522,7 @@
         <v>1</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E649" s="1">
         <v>1</v>
@@ -19548,7 +19549,7 @@
         <v>2</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E650" s="1">
         <v>0</v>
@@ -19574,7 +19575,7 @@
         <v>3</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E651" s="1">
         <v>0</v>
@@ -19589,7 +19590,7 @@
         <v>1</v>
       </c>
       <c r="I651" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="652" spans="1:9">
@@ -19603,7 +19604,7 @@
         <v>4</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E652" s="1">
         <v>1</v>
@@ -19630,7 +19631,7 @@
         <v>5</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E653" s="1">
         <v>1</v>
@@ -19657,7 +19658,7 @@
         <v>6</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E654" s="1">
         <v>1</v>
@@ -19684,7 +19685,7 @@
         <v>7</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E655" s="1">
         <v>0</v>
@@ -19710,7 +19711,7 @@
         <v>8</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E656" s="1">
         <v>1</v>
@@ -19737,7 +19738,7 @@
         <v>9</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E657" s="1">
         <v>1</v>
@@ -19764,7 +19765,7 @@
         <v>1</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E658" s="1">
         <v>1</v>
@@ -19791,7 +19792,7 @@
         <v>2</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E659" s="1">
         <v>0</v>
@@ -19817,7 +19818,7 @@
         <v>3</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E660" s="1">
         <v>0</v>
@@ -19832,7 +19833,7 @@
         <v>1</v>
       </c>
       <c r="I660" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="661" spans="1:9">
@@ -19846,7 +19847,7 @@
         <v>4</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E661" s="1">
         <v>0</v>
@@ -19873,7 +19874,7 @@
         <v>5</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E662" s="1">
         <v>0</v>
@@ -19888,7 +19889,7 @@
         <v>1</v>
       </c>
       <c r="I662" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="663" spans="1:9">
@@ -19902,7 +19903,7 @@
         <v>6</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E663" s="1">
         <v>1</v>
@@ -19929,7 +19930,7 @@
         <v>7</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E664" s="1">
         <v>0</v>
@@ -19955,7 +19956,7 @@
         <v>8</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E665" s="1">
         <v>0</v>
@@ -19971,7 +19972,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="666" spans="1:9">
@@ -19985,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E666" s="1">
         <v>0</v>
@@ -20001,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="667" spans="1:9">
@@ -20015,7 +20016,7 @@
         <v>2</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E667" s="1">
         <v>0</v>
@@ -20031,7 +20032,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="668" spans="1:9">
@@ -20045,7 +20046,7 @@
         <v>3</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E668" s="1">
         <v>0</v>
@@ -20061,7 +20062,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="669" spans="1:9">
@@ -20075,7 +20076,7 @@
         <v>4</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E669" s="1">
         <v>0</v>
@@ -20091,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="670" spans="1:9">
@@ -20105,7 +20106,7 @@
         <v>5</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E670" s="1">
         <v>0</v>
@@ -20121,7 +20122,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="671" spans="1:9">
@@ -20135,7 +20136,7 @@
         <v>6</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E671" s="1">
         <v>0</v>
@@ -20151,7 +20152,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="672" spans="1:9">
@@ -20165,7 +20166,7 @@
         <v>7</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E672" s="1">
         <v>0</v>
@@ -20181,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="673" spans="1:9">
@@ -20195,7 +20196,7 @@
         <v>8</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E673" s="1">
         <v>0</v>
@@ -20211,7 +20212,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="674" spans="1:9">
@@ -20225,7 +20226,7 @@
         <v>9</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E674" s="1">
         <v>0</v>
@@ -20241,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="675" spans="1:9">
@@ -20255,7 +20256,7 @@
         <v>10</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E675" s="1">
         <v>0</v>
@@ -20271,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="676" spans="1:9">
@@ -20285,7 +20286,7 @@
         <v>11</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E676" s="1">
         <v>0</v>
@@ -20301,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="677" spans="1:9">
@@ -20315,7 +20316,7 @@
         <v>12</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E677" s="1">
         <v>0</v>
@@ -20331,7 +20332,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="678" spans="1:9">
@@ -20345,7 +20346,7 @@
         <v>13</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E678" s="1">
         <v>0</v>
@@ -20361,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="679" spans="1:9">
@@ -20375,7 +20376,7 @@
         <v>14</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E679" s="1">
         <v>0</v>
@@ -20391,7 +20392,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="680" spans="1:9">
@@ -20405,7 +20406,7 @@
         <v>15</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E680" s="1">
         <v>0</v>
@@ -20421,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="681" spans="1:9">
@@ -20435,7 +20436,7 @@
         <v>16</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E681" s="1">
         <v>0</v>
@@ -20451,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="682" spans="1:9">
@@ -20465,7 +20466,7 @@
         <v>1</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E682" s="1">
         <v>1</v>
@@ -20492,7 +20493,7 @@
         <v>2</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E683" s="1">
         <v>1</v>
@@ -20519,7 +20520,7 @@
         <v>3</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E684" s="1">
         <v>1</v>
@@ -20546,7 +20547,7 @@
         <v>4</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E685" s="1">
         <v>1</v>
@@ -20573,7 +20574,7 @@
         <v>5</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E686" s="1">
         <v>1</v>
@@ -20600,7 +20601,7 @@
         <v>6</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E687" s="1">
         <v>1</v>
@@ -20627,7 +20628,7 @@
         <v>7</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E688" s="1">
         <v>1</v>
@@ -20654,7 +20655,7 @@
         <v>8</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E689" s="1">
         <v>1</v>
@@ -20681,7 +20682,7 @@
         <v>9</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E690" s="1">
         <v>0</v>
@@ -20707,7 +20708,7 @@
         <v>1</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E691" s="1">
         <v>1</v>
@@ -20734,7 +20735,7 @@
         <v>2</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E692" s="1">
         <v>0</v>
@@ -20760,7 +20761,7 @@
         <v>3</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E693" s="1">
         <v>0</v>
@@ -20775,7 +20776,7 @@
         <v>1</v>
       </c>
       <c r="I693" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="694" spans="1:10">
@@ -20789,7 +20790,7 @@
         <v>4</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E694" s="1">
         <v>1</v>
@@ -20816,7 +20817,7 @@
         <v>5</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E695" s="1">
         <v>0</v>
@@ -20842,7 +20843,7 @@
         <v>6</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E696" s="1">
         <v>0</v>
@@ -20868,7 +20869,7 @@
         <v>1</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E697" s="1">
         <v>1</v>
@@ -20895,7 +20896,7 @@
         <v>2</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E698" s="1">
         <v>0</v>
@@ -20921,7 +20922,7 @@
         <v>1</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E699" s="1">
         <v>0</v>
@@ -20947,7 +20948,7 @@
         <v>2</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E700" s="1">
         <v>0</v>
@@ -20962,7 +20963,7 @@
         <v>1</v>
       </c>
       <c r="I700" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J700" s="1">
         <v>1</v>
@@ -20979,7 +20980,7 @@
         <v>3</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E701" s="1">
         <v>0</v>
@@ -20994,7 +20995,7 @@
         <v>1</v>
       </c>
       <c r="I701" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="702" spans="1:10">
@@ -21008,7 +21009,7 @@
         <v>4</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E702" s="1">
         <v>1</v>
@@ -21035,7 +21036,7 @@
         <v>5</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E703" s="1">
         <v>0</v>
@@ -21061,7 +21062,7 @@
         <v>6</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E704" s="1">
         <v>0</v>
@@ -21087,7 +21088,7 @@
         <v>7</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E705" s="1">
         <v>0</v>
@@ -21113,7 +21114,7 @@
         <v>8</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E706" s="1">
         <v>0</v>
@@ -21128,7 +21129,7 @@
         <v>1</v>
       </c>
       <c r="I706" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="707" spans="1:9">
@@ -21142,7 +21143,7 @@
         <v>9</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E707" s="1">
         <v>1</v>
@@ -21169,7 +21170,7 @@
         <v>1</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E708" s="1">
         <v>1</v>
@@ -21196,7 +21197,7 @@
         <v>2</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E709" s="1">
         <v>1</v>
@@ -21223,7 +21224,7 @@
         <v>3</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E710" s="1">
         <v>1</v>
@@ -21250,7 +21251,7 @@
         <v>4</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E711" s="1">
         <v>0</v>
@@ -21276,7 +21277,7 @@
         <v>5</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E712" s="1">
         <v>0</v>
@@ -21303,7 +21304,7 @@
         <v>6</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E713" s="1">
         <v>0</v>
@@ -21329,7 +21330,7 @@
         <v>7</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E714" s="1">
         <v>1</v>
@@ -21356,7 +21357,7 @@
         <v>8</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E715" s="1">
         <v>0</v>
@@ -21382,7 +21383,7 @@
         <v>9</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E716" s="1">
         <v>1</v>
@@ -21409,7 +21410,7 @@
         <v>10</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E717" s="1">
         <v>0</v>
@@ -21424,7 +21425,7 @@
         <v>1</v>
       </c>
       <c r="I717" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="718" spans="1:9">
@@ -21438,7 +21439,7 @@
         <v>1</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E718" s="1">
         <v>1</v>
@@ -21465,7 +21466,7 @@
         <v>2</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E719" s="1">
         <v>1</v>
@@ -21492,7 +21493,7 @@
         <v>3</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E720" s="1">
         <v>1</v>
@@ -21519,7 +21520,7 @@
         <v>4</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E721" s="1">
         <v>0</v>
@@ -21545,7 +21546,7 @@
         <v>5</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E722" s="1">
         <v>1</v>
@@ -21572,7 +21573,7 @@
         <v>6</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E723" s="1">
         <v>0</v>
@@ -21587,7 +21588,7 @@
         <v>1</v>
       </c>
       <c r="I723" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="724" spans="1:10">
@@ -21601,7 +21602,7 @@
         <v>7</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E724" s="1">
         <v>1</v>
@@ -21628,7 +21629,7 @@
         <v>8</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E725" s="1">
         <v>0</v>
@@ -21643,7 +21644,7 @@
         <v>1</v>
       </c>
       <c r="I725" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="726" spans="1:10">
@@ -21657,7 +21658,7 @@
         <v>9</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E726" s="1">
         <v>0</v>
@@ -21683,7 +21684,7 @@
         <v>10</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E727" s="1">
         <v>0</v>
@@ -21709,7 +21710,7 @@
         <v>11</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E728" s="1">
         <v>0</v>
@@ -21735,7 +21736,7 @@
         <v>12</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E729" s="1">
         <v>0</v>
@@ -21762,7 +21763,7 @@
         <v>1</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E730" s="1">
         <v>1</v>
@@ -21789,7 +21790,7 @@
         <v>2</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E731" s="1">
         <v>1</v>
@@ -21816,7 +21817,7 @@
         <v>3</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E732" s="1">
         <v>0</v>
@@ -21831,7 +21832,7 @@
         <v>1</v>
       </c>
       <c r="I732" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="733" spans="1:10">
@@ -21845,7 +21846,7 @@
         <v>4</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E733" s="1">
         <v>0</v>
@@ -21860,7 +21861,7 @@
         <v>1</v>
       </c>
       <c r="I733" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J733" s="1">
         <v>1</v>
@@ -21877,7 +21878,7 @@
         <v>5</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E734" s="1">
         <v>0</v>
@@ -21903,7 +21904,7 @@
         <v>6</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E735" s="1">
         <v>0</v>
@@ -21929,7 +21930,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E736" s="1">
         <v>0</v>
@@ -21944,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="I736" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="737" spans="1:9">
@@ -21958,7 +21959,7 @@
         <v>8</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E737" s="1">
         <v>0</v>
@@ -21984,7 +21985,7 @@
         <v>9</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E738" s="1">
         <v>0</v>
@@ -21999,7 +22000,7 @@
         <v>1</v>
       </c>
       <c r="I738" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="739" spans="1:9">
@@ -22013,7 +22014,7 @@
         <v>10</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E739" s="1">
         <v>0</v>
@@ -22039,7 +22040,7 @@
         <v>11</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E740" s="1">
         <v>0</v>
@@ -22065,7 +22066,7 @@
         <v>12</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E741" s="1">
         <v>0</v>
@@ -22092,7 +22093,7 @@
         <v>13</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E742" s="1">
         <v>0</v>
@@ -22119,7 +22120,7 @@
         <v>1</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E743" s="1">
         <v>0</v>
@@ -22145,7 +22146,7 @@
         <v>2</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E744" s="1">
         <v>0</v>
@@ -22160,7 +22161,7 @@
         <v>1</v>
       </c>
       <c r="I744" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="745" spans="1:9">
@@ -22174,7 +22175,7 @@
         <v>3</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E745" s="1">
         <v>1</v>
@@ -22201,7 +22202,7 @@
         <v>4</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E746" s="1">
         <v>1</v>
@@ -22228,7 +22229,7 @@
         <v>5</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E747" s="1">
         <v>1</v>
@@ -22255,7 +22256,7 @@
         <v>6</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E748" s="1">
         <v>0</v>
@@ -22281,7 +22282,7 @@
         <v>7</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E749" s="1">
         <v>0</v>
@@ -22307,7 +22308,7 @@
         <v>1</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E750" s="1">
         <v>0</v>
@@ -22333,7 +22334,7 @@
         <v>2</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E751" s="1">
         <v>1</v>
@@ -22360,7 +22361,7 @@
         <v>3</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E752" s="1">
         <v>0</v>
@@ -22386,7 +22387,7 @@
         <v>4</v>
       </c>
       <c r="D753" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E753" s="1">
         <v>0</v>
@@ -22412,7 +22413,7 @@
         <v>5</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E754" s="1">
         <v>0</v>
@@ -22427,7 +22428,7 @@
         <v>1</v>
       </c>
       <c r="I754" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="755" spans="1:9">
@@ -22441,7 +22442,7 @@
         <v>6</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E755" s="1">
         <v>0</v>
@@ -22468,7 +22469,7 @@
         <v>1</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E756" s="1">
         <v>0</v>
@@ -22483,7 +22484,7 @@
         <v>1</v>
       </c>
       <c r="I756" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="757" spans="1:9">
@@ -22497,7 +22498,7 @@
         <v>2</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E757" s="1">
         <v>0</v>
@@ -22523,7 +22524,7 @@
         <v>3</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E758" s="1">
         <v>1</v>
@@ -22550,7 +22551,7 @@
         <v>4</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E759" s="1">
         <v>0</v>
@@ -22576,7 +22577,7 @@
         <v>5</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E760" s="1">
         <v>0</v>
@@ -22591,7 +22592,7 @@
         <v>1</v>
       </c>
       <c r="I760" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="761" spans="1:9">
@@ -22605,7 +22606,7 @@
         <v>6</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E761" s="1">
         <v>1</v>
@@ -22632,7 +22633,7 @@
         <v>7</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E762" s="1">
         <v>0</v>
@@ -22658,7 +22659,7 @@
         <v>8</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E763" s="1">
         <v>0</v>
@@ -22684,7 +22685,7 @@
         <v>9</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E764" s="1">
         <v>0</v>
@@ -22710,7 +22711,7 @@
         <v>10</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E765" s="1">
         <v>1</v>
@@ -22737,7 +22738,7 @@
         <v>11</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E766" s="1">
         <v>1</v>
@@ -22764,7 +22765,7 @@
         <v>12</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E767" s="1">
         <v>0</v>
@@ -22790,7 +22791,7 @@
         <v>1</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E768" s="1">
         <v>1</v>
@@ -22817,7 +22818,7 @@
         <v>2</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E769" s="1">
         <v>0</v>
@@ -22844,7 +22845,7 @@
         <v>3</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E770" s="1">
         <v>0</v>
@@ -22870,7 +22871,7 @@
         <v>4</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E771" s="1">
         <v>0</v>
@@ -22885,7 +22886,7 @@
         <v>1</v>
       </c>
       <c r="I771" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="772" spans="1:9">
@@ -22899,7 +22900,7 @@
         <v>5</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E772" s="1">
         <v>0</v>
@@ -22925,7 +22926,7 @@
         <v>6</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E773" s="1">
         <v>0</v>
@@ -22940,7 +22941,7 @@
         <v>1</v>
       </c>
       <c r="I773" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="774" spans="1:9">
@@ -22954,7 +22955,7 @@
         <v>1</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E774" s="1">
         <v>1</v>
@@ -22981,7 +22982,7 @@
         <v>2</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E775" s="1">
         <v>0</v>
@@ -22996,7 +22997,7 @@
         <v>1</v>
       </c>
       <c r="I775" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="776" spans="1:9">
@@ -23010,7 +23011,7 @@
         <v>3</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E776" s="1">
         <v>0</v>
@@ -23025,7 +23026,7 @@
         <v>1</v>
       </c>
       <c r="I776" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="777" spans="1:9">
@@ -23039,7 +23040,7 @@
         <v>4</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E777" s="1">
         <v>0</v>
@@ -23066,7 +23067,7 @@
         <v>5</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E778" s="1">
         <v>0</v>
@@ -23092,7 +23093,7 @@
         <v>6</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E779" s="1">
         <v>0</v>
